--- a/test/Data.xlsx
+++ b/test/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\工具开发\喷墨打印前端\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\工具开发\Inkjet_Printing_System\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9A370-5099-4296-A9B0-ECEE04E54038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6651E5-5BAA-4449-A7E2-11DCFCD586A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24585" yWindow="7680" windowWidth="23025" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -410,37 +410,37 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>8</v>
